--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.799443333333333</v>
+        <v>2.451944333333334</v>
       </c>
       <c r="H2">
-        <v>8.39833</v>
+        <v>7.355833000000001</v>
       </c>
       <c r="I2">
-        <v>0.03261182562555668</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="J2">
-        <v>0.03261182562555667</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2864683333333333</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N2">
-        <v>0.859405</v>
+        <v>0.151759</v>
       </c>
       <c r="O2">
-        <v>0.07653612378937995</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P2">
-        <v>0.07653612378937995</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q2">
-        <v>0.801951865961111</v>
+        <v>0.1240348733607778</v>
       </c>
       <c r="R2">
-        <v>7.21756679365</v>
+        <v>1.116313860247</v>
       </c>
       <c r="S2">
-        <v>0.002495982723075279</v>
+        <v>0.0003515103865926385</v>
       </c>
       <c r="T2">
-        <v>0.002495982723075279</v>
+        <v>0.0003515103865926385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.799443333333333</v>
+        <v>2.451944333333334</v>
       </c>
       <c r="H3">
-        <v>8.39833</v>
+        <v>7.355833000000001</v>
       </c>
       <c r="I3">
-        <v>0.03261182562555668</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="J3">
-        <v>0.03261182562555667</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.423945999999999</v>
+        <v>2.423946</v>
       </c>
       <c r="N3">
-        <v>7.271837999999999</v>
+        <v>7.271838</v>
       </c>
       <c r="O3">
-        <v>0.647608861182233</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P3">
-        <v>0.6476088611822332</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q3">
-        <v>6.785699470059998</v>
+        <v>5.943380659006</v>
       </c>
       <c r="R3">
-        <v>61.07129523053999</v>
+        <v>53.49042593105401</v>
       </c>
       <c r="S3">
-        <v>0.02111970725444032</v>
+        <v>0.01684332781989232</v>
       </c>
       <c r="T3">
-        <v>0.02111970725444032</v>
+        <v>0.01684332781989232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.799443333333333</v>
+        <v>2.451944333333334</v>
       </c>
       <c r="H4">
-        <v>8.39833</v>
+        <v>7.355833000000001</v>
       </c>
       <c r="I4">
-        <v>0.03261182562555668</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="J4">
-        <v>0.03261182562555667</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2710936666666667</v>
+        <v>0.522662</v>
       </c>
       <c r="N4">
-        <v>0.813281</v>
+        <v>1.567986</v>
       </c>
       <c r="O4">
-        <v>0.07242845374596461</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P4">
-        <v>0.07242845374596461</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q4">
-        <v>0.7589113578588889</v>
+        <v>1.281538129148667</v>
       </c>
       <c r="R4">
-        <v>6.83020222073</v>
+        <v>11.533843162338</v>
       </c>
       <c r="S4">
-        <v>0.002362024103892095</v>
+        <v>0.003631833136959552</v>
       </c>
       <c r="T4">
-        <v>0.002362024103892095</v>
+        <v>0.003631833136959554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.799443333333333</v>
+        <v>2.451944333333334</v>
       </c>
       <c r="H5">
-        <v>8.39833</v>
+        <v>7.355833000000001</v>
       </c>
       <c r="I5">
-        <v>0.03261182562555668</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="J5">
-        <v>0.03261182562555667</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4501426666666666</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N5">
-        <v>1.350428</v>
+        <v>0.295671</v>
       </c>
       <c r="O5">
-        <v>0.1202652120672381</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P5">
-        <v>0.1202652120672381</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q5">
-        <v>1.260148887248889</v>
+        <v>0.2416562776603334</v>
       </c>
       <c r="R5">
-        <v>11.34133998524</v>
+        <v>2.174906498943</v>
       </c>
       <c r="S5">
-        <v>0.003922068124757365</v>
+        <v>0.0006848452316780686</v>
       </c>
       <c r="T5">
-        <v>0.003922068124757364</v>
+        <v>0.0006848452316780687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.799443333333333</v>
+        <v>2.451944333333334</v>
       </c>
       <c r="H6">
-        <v>8.39833</v>
+        <v>7.355833000000001</v>
       </c>
       <c r="I6">
-        <v>0.03261182562555668</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="J6">
-        <v>0.03261182562555667</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.311266</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N6">
-        <v>0.9337979999999999</v>
+        <v>1.818005</v>
       </c>
       <c r="O6">
-        <v>0.08316134921518425</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P6">
-        <v>0.08316134921518424</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q6">
-        <v>0.8713715285933332</v>
+        <v>1.485882352573889</v>
       </c>
       <c r="R6">
-        <v>7.842343757339999</v>
+        <v>13.372941173165</v>
       </c>
       <c r="S6">
-        <v>0.002712043419391614</v>
+        <v>0.004210937343929189</v>
       </c>
       <c r="T6">
-        <v>0.002712043419391613</v>
+        <v>0.004210937343929189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.790565333333333</v>
+        <v>2.451944333333334</v>
       </c>
       <c r="H7">
-        <v>8.371696</v>
+        <v>7.355833000000001</v>
       </c>
       <c r="I7">
-        <v>0.03250840228261694</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="J7">
-        <v>0.03250840228261694</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2864683333333333</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N7">
-        <v>0.859405</v>
+        <v>0.213191</v>
       </c>
       <c r="O7">
-        <v>0.07653612378937995</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P7">
-        <v>0.07653612378937995</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q7">
-        <v>0.7994086000977778</v>
+        <v>0.1742441547892222</v>
       </c>
       <c r="R7">
-        <v>7.19467740088</v>
+        <v>1.568197393103</v>
       </c>
       <c r="S7">
-        <v>0.002488067101297332</v>
+        <v>0.0004938016910237362</v>
       </c>
       <c r="T7">
-        <v>0.002488067101297332</v>
+        <v>0.0004938016910237363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>8.371696</v>
       </c>
       <c r="I8">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="J8">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.423945999999999</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N8">
-        <v>7.271837999999999</v>
+        <v>0.151759</v>
       </c>
       <c r="O8">
-        <v>0.647608861182233</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P8">
-        <v>0.6476088611822332</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q8">
-        <v>6.764179677471999</v>
+        <v>0.1411644681404444</v>
       </c>
       <c r="R8">
-        <v>60.87761709724799</v>
+        <v>1.270480213264</v>
       </c>
       <c r="S8">
-        <v>0.02105272938109946</v>
+        <v>0.0004000550443975611</v>
       </c>
       <c r="T8">
-        <v>0.02105272938109947</v>
+        <v>0.0004000550443975611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>8.371696</v>
       </c>
       <c r="I9">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="J9">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2710936666666667</v>
+        <v>2.423946</v>
       </c>
       <c r="N9">
-        <v>0.813281</v>
+        <v>7.271838</v>
       </c>
       <c r="O9">
-        <v>0.07242845374596461</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P9">
-        <v>0.07242845374596461</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q9">
-        <v>0.7565045882862222</v>
+        <v>6.764179677472</v>
       </c>
       <c r="R9">
-        <v>6.808541294576</v>
+        <v>60.877617097248</v>
       </c>
       <c r="S9">
-        <v>0.002354533311081732</v>
+        <v>0.01916944282673101</v>
       </c>
       <c r="T9">
-        <v>0.002354533311081732</v>
+        <v>0.01916944282673101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>8.371696</v>
       </c>
       <c r="I10">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="J10">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4501426666666666</v>
+        <v>0.522662</v>
       </c>
       <c r="N10">
-        <v>1.350428</v>
+        <v>1.567986</v>
       </c>
       <c r="O10">
-        <v>0.1202652120672381</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P10">
-        <v>0.1202652120672381</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q10">
-        <v>1.256152520654222</v>
+        <v>1.458522458250667</v>
       </c>
       <c r="R10">
-        <v>11.305372685888</v>
+        <v>13.126702124256</v>
       </c>
       <c r="S10">
-        <v>0.003909629894486014</v>
+        <v>0.004133400383797693</v>
       </c>
       <c r="T10">
-        <v>0.003909629894486014</v>
+        <v>0.004133400383797694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>8.371696</v>
       </c>
       <c r="I11">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="J11">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.311266</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N11">
-        <v>0.9337979999999999</v>
+        <v>0.295671</v>
       </c>
       <c r="O11">
-        <v>0.08316134921518425</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P11">
-        <v>0.08316134921518424</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q11">
-        <v>0.8686081090453333</v>
+        <v>0.2750297475573333</v>
       </c>
       <c r="R11">
-        <v>7.817472981407999</v>
+        <v>2.475267728016</v>
       </c>
       <c r="S11">
-        <v>0.002703442594652401</v>
+        <v>0.0007794244495026409</v>
       </c>
       <c r="T11">
-        <v>0.0027034425946524</v>
+        <v>0.000779424449502641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.29677933333333</v>
+        <v>2.790565333333333</v>
       </c>
       <c r="H12">
-        <v>45.890338</v>
+        <v>8.371696</v>
       </c>
       <c r="I12">
-        <v>0.1781982490273492</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="J12">
-        <v>0.1781982490273492</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2864683333333333</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N12">
-        <v>0.859405</v>
+        <v>1.818005</v>
       </c>
       <c r="O12">
-        <v>0.07653612378937995</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P12">
-        <v>0.07653612378937995</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q12">
-        <v>4.382042880987778</v>
+        <v>1.691087242942222</v>
       </c>
       <c r="R12">
-        <v>39.43838592889</v>
+        <v>15.21978518648</v>
       </c>
       <c r="S12">
-        <v>0.01363860324660795</v>
+        <v>0.004792480650175528</v>
       </c>
       <c r="T12">
-        <v>0.01363860324660795</v>
+        <v>0.004792480650175529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.29677933333333</v>
+        <v>2.790565333333333</v>
       </c>
       <c r="H13">
-        <v>45.890338</v>
+        <v>8.371696</v>
       </c>
       <c r="I13">
-        <v>0.1781982490273492</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="J13">
-        <v>0.1781982490273492</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.423945999999999</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N13">
-        <v>7.271837999999999</v>
+        <v>0.213191</v>
       </c>
       <c r="O13">
-        <v>0.647608861182233</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P13">
-        <v>0.6476088611822332</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q13">
-        <v>37.07856707791599</v>
+        <v>0.1983078046595556</v>
       </c>
       <c r="R13">
-        <v>333.707103701244</v>
+        <v>1.784770241936</v>
       </c>
       <c r="S13">
-        <v>0.1154027651172696</v>
+        <v>0.0005619972124892786</v>
       </c>
       <c r="T13">
-        <v>0.1154027651172696</v>
+        <v>0.0005619972124892787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.29677933333333</v>
+        <v>24.02567266666667</v>
       </c>
       <c r="H14">
-        <v>45.890338</v>
+        <v>72.07701800000001</v>
       </c>
       <c r="I14">
-        <v>0.1781982490273492</v>
+        <v>0.2568831466810099</v>
       </c>
       <c r="J14">
-        <v>0.1781982490273492</v>
+        <v>0.25688314668101</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2710936666666667</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N14">
-        <v>0.813281</v>
+        <v>0.151759</v>
       </c>
       <c r="O14">
-        <v>0.07242845374596461</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P14">
-        <v>0.07242845374596461</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q14">
-        <v>4.146859997664222</v>
+        <v>1.215370686073556</v>
       </c>
       <c r="R14">
-        <v>37.321739978978</v>
+        <v>10.938336174662</v>
       </c>
       <c r="S14">
-        <v>0.01290662363728924</v>
+        <v>0.003444316974246773</v>
       </c>
       <c r="T14">
-        <v>0.01290662363728924</v>
+        <v>0.003444316974246774</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.29677933333333</v>
+        <v>24.02567266666667</v>
       </c>
       <c r="H15">
-        <v>45.890338</v>
+        <v>72.07701800000001</v>
       </c>
       <c r="I15">
-        <v>0.1781982490273492</v>
+        <v>0.2568831466810099</v>
       </c>
       <c r="J15">
-        <v>0.1781982490273492</v>
+        <v>0.25688314668101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4501426666666666</v>
+        <v>2.423946</v>
       </c>
       <c r="N15">
-        <v>1.350428</v>
+        <v>7.271838</v>
       </c>
       <c r="O15">
-        <v>0.1202652120672381</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P15">
-        <v>0.1202652120672381</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q15">
-        <v>6.885733040518222</v>
+        <v>58.23693315767601</v>
       </c>
       <c r="R15">
-        <v>61.971597364664</v>
+        <v>524.1323984190841</v>
       </c>
       <c r="S15">
-        <v>0.02143105020928466</v>
+        <v>0.165041381778825</v>
       </c>
       <c r="T15">
-        <v>0.02143105020928466</v>
+        <v>0.165041381778825</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.29677933333333</v>
+        <v>24.02567266666667</v>
       </c>
       <c r="H16">
-        <v>45.890338</v>
+        <v>72.07701800000001</v>
       </c>
       <c r="I16">
-        <v>0.1781982490273492</v>
+        <v>0.2568831466810099</v>
       </c>
       <c r="J16">
-        <v>0.1781982490273492</v>
+        <v>0.25688314668101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.311266</v>
+        <v>0.522662</v>
       </c>
       <c r="N16">
-        <v>0.9337979999999999</v>
+        <v>1.567986</v>
       </c>
       <c r="O16">
-        <v>0.08316134921518425</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P16">
-        <v>0.08316134921518424</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q16">
-        <v>4.761367315969333</v>
+        <v>12.55730612730533</v>
       </c>
       <c r="R16">
-        <v>42.852305843724</v>
+        <v>113.015755145748</v>
       </c>
       <c r="S16">
-        <v>0.01481920681689775</v>
+        <v>0.03558695560185095</v>
       </c>
       <c r="T16">
-        <v>0.01481920681689775</v>
+        <v>0.03558695560185097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.267579333333333</v>
+        <v>24.02567266666667</v>
       </c>
       <c r="H17">
-        <v>6.802738000000001</v>
+        <v>72.07701800000001</v>
       </c>
       <c r="I17">
-        <v>0.0264159309567912</v>
+        <v>0.2568831466810099</v>
       </c>
       <c r="J17">
-        <v>0.0264159309567912</v>
+        <v>0.25688314668101</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2864683333333333</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N17">
-        <v>0.859405</v>
+        <v>0.295671</v>
       </c>
       <c r="O17">
-        <v>0.07653612378937995</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P17">
-        <v>0.07653612378937995</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q17">
-        <v>0.6495896723211111</v>
+        <v>2.367898221008667</v>
       </c>
       <c r="R17">
-        <v>5.84630705089</v>
+        <v>21.311083989078</v>
       </c>
       <c r="S17">
-        <v>0.002021772961720685</v>
+        <v>0.006710538710010724</v>
       </c>
       <c r="T17">
-        <v>0.002021772961720685</v>
+        <v>0.006710538710010726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.267579333333333</v>
+        <v>24.02567266666667</v>
       </c>
       <c r="H18">
-        <v>6.802738000000001</v>
+        <v>72.07701800000001</v>
       </c>
       <c r="I18">
-        <v>0.0264159309567912</v>
+        <v>0.2568831466810099</v>
       </c>
       <c r="J18">
-        <v>0.0264159309567912</v>
+        <v>0.25688314668101</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>2.423945999999999</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N18">
-        <v>7.271837999999999</v>
+        <v>1.818005</v>
       </c>
       <c r="O18">
-        <v>0.647608861182233</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P18">
-        <v>0.6476088611822332</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q18">
-        <v>5.496489854715999</v>
+        <v>14.55959767878778</v>
       </c>
       <c r="R18">
-        <v>49.46840869244399</v>
+        <v>131.03637910909</v>
       </c>
       <c r="S18">
-        <v>0.01710719096399604</v>
+        <v>0.04126137811112029</v>
       </c>
       <c r="T18">
-        <v>0.01710719096399604</v>
+        <v>0.04126137811112029</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.267579333333333</v>
+        <v>24.02567266666667</v>
       </c>
       <c r="H19">
-        <v>6.802738000000001</v>
+        <v>72.07701800000001</v>
       </c>
       <c r="I19">
-        <v>0.0264159309567912</v>
+        <v>0.2568831466810099</v>
       </c>
       <c r="J19">
-        <v>0.0264159309567912</v>
+        <v>0.25688314668101</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2710936666666667</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N19">
-        <v>0.813281</v>
+        <v>0.213191</v>
       </c>
       <c r="O19">
-        <v>0.07242845374596461</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P19">
-        <v>0.07242845374596461</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q19">
-        <v>0.614726395930889</v>
+        <v>1.707352393826445</v>
       </c>
       <c r="R19">
-        <v>5.532537563378001</v>
+        <v>15.366171544438</v>
       </c>
       <c r="S19">
-        <v>0.001913265033460546</v>
+        <v>0.004838575504956172</v>
       </c>
       <c r="T19">
-        <v>0.001913265033460546</v>
+        <v>0.004838575504956173</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.267579333333333</v>
+        <v>1.586978666666667</v>
       </c>
       <c r="H20">
-        <v>6.802738000000001</v>
+        <v>4.760936</v>
       </c>
       <c r="I20">
-        <v>0.0264159309567912</v>
+        <v>0.01696801913790191</v>
       </c>
       <c r="J20">
-        <v>0.0264159309567912</v>
+        <v>0.01696801913790192</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.4501426666666666</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N20">
-        <v>1.350428</v>
+        <v>0.151759</v>
       </c>
       <c r="O20">
-        <v>0.1202652120672381</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P20">
-        <v>0.1202652120672381</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q20">
-        <v>1.020734207984889</v>
+        <v>0.08027943182488891</v>
       </c>
       <c r="R20">
-        <v>9.186607871864</v>
+        <v>0.7225148864240001</v>
       </c>
       <c r="S20">
-        <v>0.003176917538472014</v>
+        <v>0.0002275090331581494</v>
       </c>
       <c r="T20">
-        <v>0.003176917538472014</v>
+        <v>0.0002275090331581495</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.267579333333333</v>
+        <v>1.586978666666667</v>
       </c>
       <c r="H21">
-        <v>6.802738000000001</v>
+        <v>4.760936</v>
       </c>
       <c r="I21">
-        <v>0.0264159309567912</v>
+        <v>0.01696801913790191</v>
       </c>
       <c r="J21">
-        <v>0.0264159309567912</v>
+        <v>0.01696801913790192</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.311266</v>
+        <v>2.423946</v>
       </c>
       <c r="N21">
-        <v>0.9337979999999999</v>
+        <v>7.271838</v>
       </c>
       <c r="O21">
-        <v>0.08316134921518425</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P21">
-        <v>0.08316134921518424</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q21">
-        <v>0.7058203487693333</v>
+        <v>3.846750591152</v>
       </c>
       <c r="R21">
-        <v>6.352383138924</v>
+        <v>34.620755320368</v>
       </c>
       <c r="S21">
-        <v>0.002196784459141909</v>
+        <v>0.01090155333563539</v>
       </c>
       <c r="T21">
-        <v>0.002196784459141909</v>
+        <v>0.01090155333563539</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>51.21439733333333</v>
+        <v>1.586978666666667</v>
       </c>
       <c r="H22">
-        <v>153.643192</v>
+        <v>4.760936</v>
       </c>
       <c r="I22">
-        <v>0.5966168257329642</v>
+        <v>0.01696801913790191</v>
       </c>
       <c r="J22">
-        <v>0.5966168257329642</v>
+        <v>0.01696801913790192</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2864683333333333</v>
+        <v>0.522662</v>
       </c>
       <c r="N22">
-        <v>0.859405</v>
+        <v>1.567986</v>
       </c>
       <c r="O22">
-        <v>0.07653612378937995</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P22">
-        <v>0.07653612378937995</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q22">
-        <v>14.67130304675111</v>
+        <v>0.8294534438773333</v>
       </c>
       <c r="R22">
-        <v>132.04172742076</v>
+        <v>7.465080994896</v>
       </c>
       <c r="S22">
-        <v>0.04566273922912507</v>
+        <v>0.002350641338342464</v>
       </c>
       <c r="T22">
-        <v>0.04566273922912507</v>
+        <v>0.002350641338342465</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>51.21439733333333</v>
+        <v>1.586978666666667</v>
       </c>
       <c r="H23">
-        <v>153.643192</v>
+        <v>4.760936</v>
       </c>
       <c r="I23">
-        <v>0.5966168257329642</v>
+        <v>0.01696801913790191</v>
       </c>
       <c r="J23">
-        <v>0.5966168257329642</v>
+        <v>0.01696801913790192</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>2.423945999999999</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N23">
-        <v>7.271837999999999</v>
+        <v>0.295671</v>
       </c>
       <c r="O23">
-        <v>0.647608861182233</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P23">
-        <v>0.6476088611822332</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q23">
-        <v>124.140933558544</v>
+        <v>0.1564078564506667</v>
       </c>
       <c r="R23">
-        <v>1117.268402026896</v>
+        <v>1.407670708056</v>
       </c>
       <c r="S23">
-        <v>0.3863743430750837</v>
+        <v>0.0004432542606560613</v>
       </c>
       <c r="T23">
-        <v>0.3863743430750838</v>
+        <v>0.0004432542606560613</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>51.21439733333333</v>
+        <v>1.586978666666667</v>
       </c>
       <c r="H24">
-        <v>153.643192</v>
+        <v>4.760936</v>
       </c>
       <c r="I24">
-        <v>0.5966168257329642</v>
+        <v>0.01696801913790191</v>
       </c>
       <c r="J24">
-        <v>0.5966168257329642</v>
+        <v>0.01696801913790192</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.2710936666666667</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N24">
-        <v>0.813281</v>
+        <v>1.818005</v>
       </c>
       <c r="O24">
-        <v>0.07242845374596461</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P24">
-        <v>0.07242845374596461</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q24">
-        <v>13.88389875921689</v>
+        <v>0.9617117169644445</v>
       </c>
       <c r="R24">
-        <v>124.955088832952</v>
+        <v>8.65540545268</v>
       </c>
       <c r="S24">
-        <v>0.04321203416666423</v>
+        <v>0.002725456545092426</v>
       </c>
       <c r="T24">
-        <v>0.04321203416666423</v>
+        <v>0.002725456545092426</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>51.21439733333333</v>
+        <v>1.586978666666667</v>
       </c>
       <c r="H25">
-        <v>153.643192</v>
+        <v>4.760936</v>
       </c>
       <c r="I25">
-        <v>0.5966168257329642</v>
+        <v>0.01696801913790191</v>
       </c>
       <c r="J25">
-        <v>0.5966168257329642</v>
+        <v>0.01696801913790192</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.4501426666666666</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N25">
-        <v>1.350428</v>
+        <v>0.213191</v>
       </c>
       <c r="O25">
-        <v>0.1202652120672381</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P25">
-        <v>0.1202652120672381</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q25">
-        <v>23.05378538735289</v>
+        <v>0.1127765229751111</v>
       </c>
       <c r="R25">
-        <v>207.484068486176</v>
+        <v>1.014988706776</v>
       </c>
       <c r="S25">
-        <v>0.07175224906965738</v>
+        <v>0.0003196046250174226</v>
       </c>
       <c r="T25">
-        <v>0.07175224906965738</v>
+        <v>0.0003196046250174226</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>51.21439733333333</v>
+        <v>49.62511566666666</v>
       </c>
       <c r="H26">
-        <v>153.643192</v>
+        <v>148.875347</v>
       </c>
       <c r="I26">
-        <v>0.5966168257329642</v>
+        <v>0.5305930886400884</v>
       </c>
       <c r="J26">
-        <v>0.5966168257329642</v>
+        <v>0.5305930886400885</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,33 +2049,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.311266</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N26">
-        <v>0.9337979999999999</v>
+        <v>0.151759</v>
       </c>
       <c r="O26">
-        <v>0.08316134921518425</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P26">
-        <v>0.08316134921518424</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q26">
-        <v>15.94130060035733</v>
+        <v>2.510352642819222</v>
       </c>
       <c r="R26">
-        <v>143.471705403216</v>
+        <v>22.593173785373</v>
       </c>
       <c r="S26">
-        <v>0.04961546019243376</v>
+        <v>0.00711424943688678</v>
       </c>
       <c r="T26">
-        <v>0.04961546019243375</v>
+        <v>0.007114249436886782</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.47259133333333</v>
+        <v>49.62511566666666</v>
       </c>
       <c r="H27">
-        <v>34.417774</v>
+        <v>148.875347</v>
       </c>
       <c r="I27">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400884</v>
       </c>
       <c r="J27">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400885</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.2864683333333333</v>
+        <v>2.423946</v>
       </c>
       <c r="N27">
-        <v>0.859405</v>
+        <v>7.271838</v>
       </c>
       <c r="O27">
-        <v>0.07653612378937995</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P27">
-        <v>0.07653612378937995</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q27">
-        <v>3.286534118274445</v>
+        <v>120.288600619754</v>
       </c>
       <c r="R27">
-        <v>29.57880706447</v>
+        <v>1082.597405577786</v>
       </c>
       <c r="S27">
-        <v>0.01022895852755364</v>
+        <v>0.3408935838838677</v>
       </c>
       <c r="T27">
-        <v>0.01022895852755364</v>
+        <v>0.3408935838838678</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.47259133333333</v>
+        <v>49.62511566666666</v>
       </c>
       <c r="H28">
-        <v>34.417774</v>
+        <v>148.875347</v>
       </c>
       <c r="I28">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400884</v>
       </c>
       <c r="J28">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400885</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.423945999999999</v>
+        <v>0.522662</v>
       </c>
       <c r="N28">
-        <v>7.271837999999999</v>
+        <v>1.567986</v>
       </c>
       <c r="O28">
-        <v>0.647608861182233</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P28">
-        <v>0.6476088611822332</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q28">
-        <v>27.80894187206799</v>
+        <v>25.93716220457133</v>
       </c>
       <c r="R28">
-        <v>250.280476848612</v>
+        <v>233.4344598411419</v>
       </c>
       <c r="S28">
-        <v>0.08655212539034399</v>
+        <v>0.07350498828765577</v>
       </c>
       <c r="T28">
-        <v>0.086552125390344</v>
+        <v>0.0735049882876558</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.47259133333333</v>
+        <v>49.62511566666666</v>
       </c>
       <c r="H29">
-        <v>34.417774</v>
+        <v>148.875347</v>
       </c>
       <c r="I29">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400884</v>
       </c>
       <c r="J29">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400885</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.2710936666666667</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N29">
-        <v>0.813281</v>
+        <v>0.295671</v>
       </c>
       <c r="O29">
-        <v>0.07242845374596461</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P29">
-        <v>0.07242845374596461</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q29">
-        <v>3.110146850721556</v>
+        <v>4.890902524759666</v>
       </c>
       <c r="R29">
-        <v>27.991321656494</v>
+        <v>44.018122722837</v>
       </c>
       <c r="S29">
-        <v>0.009679973493576778</v>
+        <v>0.01386064250063423</v>
       </c>
       <c r="T29">
-        <v>0.009679973493576778</v>
+        <v>0.01386064250063424</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,61 +2279,61 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.47259133333333</v>
+        <v>49.62511566666666</v>
       </c>
       <c r="H30">
-        <v>34.417774</v>
+        <v>148.875347</v>
       </c>
       <c r="I30">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400884</v>
       </c>
       <c r="J30">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400885</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.4501426666666666</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N30">
-        <v>1.350428</v>
+        <v>1.818005</v>
       </c>
       <c r="O30">
-        <v>0.1202652120672381</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P30">
-        <v>0.1202652120672381</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q30">
-        <v>5.164302856363555</v>
+        <v>30.07290280252611</v>
       </c>
       <c r="R30">
-        <v>46.478725707272</v>
+        <v>270.6561252227349</v>
       </c>
       <c r="S30">
-        <v>0.0160732972305807</v>
+        <v>0.08522552894726078</v>
       </c>
       <c r="T30">
-        <v>0.0160732972305807</v>
+        <v>0.08522552894726079</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.47259133333333</v>
+        <v>49.62511566666666</v>
       </c>
       <c r="H31">
-        <v>34.417774</v>
+        <v>148.875347</v>
       </c>
       <c r="I31">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400884</v>
       </c>
       <c r="J31">
-        <v>0.1336487663747219</v>
+        <v>0.5305930886400885</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.311266</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N31">
-        <v>0.9337979999999999</v>
+        <v>0.213191</v>
       </c>
       <c r="O31">
-        <v>0.08316134921518425</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P31">
-        <v>0.08316134921518424</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q31">
-        <v>3.571027613961333</v>
+        <v>3.526542678030777</v>
       </c>
       <c r="R31">
-        <v>32.139248525652</v>
+        <v>31.73888410227699</v>
       </c>
       <c r="S31">
-        <v>0.01111441173266682</v>
+        <v>0.009994095583783032</v>
       </c>
       <c r="T31">
-        <v>0.01111441173266682</v>
+        <v>0.009994095583783034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.04735633333333</v>
+      </c>
+      <c r="H32">
+        <v>39.142069</v>
+      </c>
+      <c r="I32">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="J32">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N32">
+        <v>0.151759</v>
+      </c>
+      <c r="O32">
+        <v>0.0134081080006538</v>
+      </c>
+      <c r="P32">
+        <v>0.0134081080006538</v>
+      </c>
+      <c r="Q32">
+        <v>0.6600179165967778</v>
+      </c>
+      <c r="R32">
+        <v>5.940161249371</v>
+      </c>
+      <c r="S32">
+        <v>0.001870467125371896</v>
+      </c>
+      <c r="T32">
+        <v>0.001870467125371896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.04735633333333</v>
+      </c>
+      <c r="H33">
+        <v>39.142069</v>
+      </c>
+      <c r="I33">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="J33">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.423946</v>
+      </c>
+      <c r="N33">
+        <v>7.271838</v>
+      </c>
+      <c r="O33">
+        <v>0.6424764875049145</v>
+      </c>
+      <c r="P33">
+        <v>0.6424764875049145</v>
+      </c>
+      <c r="Q33">
+        <v>31.626087194758</v>
+      </c>
+      <c r="R33">
+        <v>284.634784752822</v>
+      </c>
+      <c r="S33">
+        <v>0.08962719785996294</v>
+      </c>
+      <c r="T33">
+        <v>0.08962719785996294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.04735633333333</v>
+      </c>
+      <c r="H34">
+        <v>39.142069</v>
+      </c>
+      <c r="I34">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="J34">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.522662</v>
+      </c>
+      <c r="N34">
+        <v>1.567986</v>
+      </c>
+      <c r="O34">
+        <v>0.1385336331388131</v>
+      </c>
+      <c r="P34">
+        <v>0.1385336331388132</v>
+      </c>
+      <c r="Q34">
+        <v>6.819357355892666</v>
+      </c>
+      <c r="R34">
+        <v>61.374216203034</v>
+      </c>
+      <c r="S34">
+        <v>0.01932581439020669</v>
+      </c>
+      <c r="T34">
+        <v>0.01932581439020669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.04735633333333</v>
+      </c>
+      <c r="H35">
+        <v>39.142069</v>
+      </c>
+      <c r="I35">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="J35">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.09855700000000001</v>
+      </c>
+      <c r="N35">
+        <v>0.295671</v>
+      </c>
+      <c r="O35">
+        <v>0.02612292319177979</v>
+      </c>
+      <c r="P35">
+        <v>0.02612292319177979</v>
+      </c>
+      <c r="Q35">
+        <v>1.285908298144333</v>
+      </c>
+      <c r="R35">
+        <v>11.573174683299</v>
+      </c>
+      <c r="S35">
+        <v>0.003644218039298057</v>
+      </c>
+      <c r="T35">
+        <v>0.003644218039298057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.04735633333333</v>
+      </c>
+      <c r="H36">
+        <v>39.142069</v>
+      </c>
+      <c r="I36">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="J36">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.6060016666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.818005</v>
+      </c>
+      <c r="O36">
+        <v>0.1606231418612973</v>
+      </c>
+      <c r="P36">
+        <v>0.1606231418612973</v>
+      </c>
+      <c r="Q36">
+        <v>7.906719683593889</v>
+      </c>
+      <c r="R36">
+        <v>71.160477152345</v>
+      </c>
+      <c r="S36">
+        <v>0.02240736026371901</v>
+      </c>
+      <c r="T36">
+        <v>0.02240736026371901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.04735633333333</v>
+      </c>
+      <c r="H37">
+        <v>39.142069</v>
+      </c>
+      <c r="I37">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="J37">
+        <v>0.1395026893638304</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.07106366666666666</v>
+      </c>
+      <c r="N37">
+        <v>0.213191</v>
+      </c>
+      <c r="O37">
+        <v>0.01883570630254142</v>
+      </c>
+      <c r="P37">
+        <v>0.01883570630254142</v>
+      </c>
+      <c r="Q37">
+        <v>0.9271929813532221</v>
+      </c>
+      <c r="R37">
+        <v>8.344736832178999</v>
+      </c>
+      <c r="S37">
+        <v>0.002627631685271779</v>
+      </c>
+      <c r="T37">
+        <v>0.002627631685271779</v>
       </c>
     </row>
   </sheetData>
